--- a/medicine/Psychotrope/Clos_du_Marquis/Clos_du_Marquis.xlsx
+++ b/medicine/Psychotrope/Clos_du_Marquis/Clos_du_Marquis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Clos du Marquis est un vin de Bordeaux appartenant au vignoble de Saint-Julien (dans le vignoble du Médoc).
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La marque Clos du Marquis fut créée à la fin du XIXe siècle par Théophile Skawinski, administrateur du Château Las Cases, trisaïeul de l'actuel administrateur, Jean-Hubert Delon.
 Des bordereaux de courtiers attestent de son utilisation régulière dès le début du XXe siècle.
@@ -551,7 +565,9 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les techniques de viticulture, vinification, élevage et conditionnement appliquées au Clos du Marquis sont les mêmes que celles du grand vin.
 L'élevage en barriques du Clos du Marquis est cependant d'une durée inférieure et dans une proportion de barrique neuve également inférieure, qui peut varier selon la qualité des millésimes.
@@ -586,7 +602,9 @@
           <t>Qualités gustatives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin, limpide, présente une robe rubis-pourpre soutenue aux reflets légèrement orangés.
 Le nez, agréable, complexe et intense, exalte des arômes de cassis, mûre, kirsch, cèdre, sur un fond boisé.
